--- a/Test Data/TC_02_03_Verify_Logic_Of_Slot_Loop_Cards_Addition_in_Panels_Pro16xD_Pro16xBB_Pro815D_Pro885D_Pro815D-CH_Pro215D_Pro215S.xlsx
+++ b/Test Data/TC_02_03_Verify_Logic_Of_Slot_Loop_Cards_Addition_in_Panels_Pro16xD_Pro16xBB_Pro815D_Pro885D_Pro815D-CH_Pro215D_Pro215S.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
   </bookViews>
   <sheets>
     <sheet name="Add Slot Cards" sheetId="6" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Loops</t>
   </si>
   <si>
-    <t>PCH800</t>
-  </si>
-  <si>
     <t>PNI800</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Loops Included</t>
+  </si>
+  <si>
+    <t>PCH800 5.0A</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8:O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,10 +624,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -645,25 +645,25 @@
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -677,13 +677,13 @@
         <v>14</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>11</v>
@@ -692,31 +692,31 @@
         <v>12</v>
       </c>
       <c r="K8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="M8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="N8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>10</v>
@@ -725,13 +725,13 @@
         <v>15</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>10</v>
@@ -740,31 +740,31 @@
         <v>10</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" s="17">
         <v>4</v>
@@ -818,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -833,13 +833,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
